--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1648,17 +1648,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.71875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1667,28 +1667,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.4453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.16015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1648,17 +1648,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.71875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1667,28 +1667,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -872,13 +872,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSSospechaPatologiaGes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -932,9 +926,6 @@
     <t>Condition.code.coding.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSSospechaPatologiaGes</t>
-  </si>
-  <si>
     <t>Condition.code.coding.display</t>
   </si>
   <si>
@@ -954,6 +945,9 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -4886,13 +4880,11 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4925,30 +4917,30 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5063,10 +5055,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5183,10 +5175,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5305,10 +5297,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5423,10 +5415,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5543,10 +5535,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5665,10 +5657,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5785,10 +5777,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5846,11 +5838,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5903,10 +5897,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6023,10 +6017,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6145,10 +6139,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6267,10 +6261,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6296,13 +6290,13 @@
         <v>155</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6328,13 +6322,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6352,7 +6346,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6370,31 +6364,31 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6413,17 +6407,17 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6472,7 +6466,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6487,19 +6481,19 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>77</v>
@@ -6507,10 +6501,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6533,16 +6527,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6592,7 +6586,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6607,19 +6601,19 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>77</v>
@@ -6627,10 +6621,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6653,16 +6647,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6712,7 +6706,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6727,19 +6721,19 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>77</v>
@@ -6747,10 +6741,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6773,16 +6767,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6832,7 +6826,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6841,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -6856,10 +6850,10 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>77</v>
@@ -6867,10 +6861,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6893,13 +6887,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6950,7 +6944,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6971,13 +6965,13 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>77</v>
@@ -6985,10 +6979,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7011,13 +7005,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7068,7 +7062,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7092,10 +7086,10 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>77</v>
@@ -7103,10 +7097,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7129,13 +7123,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7186,7 +7180,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7207,13 +7201,13 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>77</v>
@@ -7221,10 +7215,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7247,13 +7241,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7304,7 +7298,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7316,7 +7310,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7328,7 +7322,7 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>77</v>
@@ -7339,10 +7333,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7457,10 +7451,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7577,14 +7571,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7606,10 +7600,10 @@
         <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>137</v>
@@ -7664,7 +7658,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7699,10 +7693,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7728,10 +7722,10 @@
         <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7758,13 +7752,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7782,7 +7776,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7791,7 +7785,7 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7800,13 +7794,13 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>77</v>
@@ -7817,10 +7811,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7843,13 +7837,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7900,7 +7894,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7909,7 +7903,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7924,7 +7918,7 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>77</v>
@@ -7935,10 +7929,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7964,10 +7958,10 @@
         <v>155</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7994,13 +7988,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8018,7 +8012,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8042,7 +8036,7 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>77</v>
@@ -8053,10 +8047,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8079,16 +8073,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8138,7 +8132,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8150,7 +8144,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8162,7 +8156,7 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8173,10 +8167,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8291,10 +8285,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8411,14 +8405,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8440,10 +8434,10 @@
         <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>137</v>
@@ -8498,7 +8492,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8533,10 +8527,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8562,10 +8556,10 @@
         <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8592,13 +8586,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8616,7 +8610,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8625,13 +8619,13 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>185</v>
@@ -8640,10 +8634,10 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>77</v>
@@ -8651,10 +8645,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8677,13 +8671,13 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8734,7 +8728,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8743,7 +8737,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8758,10 +8752,10 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>77</v>
@@ -8769,10 +8763,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8795,13 +8789,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8852,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8867,16 +8861,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1642,17 +1642,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.71875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1661,28 +1661,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.4453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.16015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
+++ b/docs/StructureDefinition-ConditionInicioSospechaGesLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
